--- a/biology/Botanique/Colaconemataceae/Colaconemataceae.xlsx
+++ b/biology/Botanique/Colaconemataceae/Colaconemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colaconemataceae sont une famille d’algues rouges de l’ordre des Colaconematales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Colaconema, formé du préfixe colac-, parasite, et du suffixe -nem, « fil ; filament », en référence à la forme de cette algue dont le thalle microcopique est « constitué de filaments rouge-rose, rampants, irrégulièrement ramifiés et articulés, vivant dans les parois cellulaires de diverses algues »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Colaconema, formé du préfixe colac-, parasite, et du suffixe -nem, « fil ; filament », en référence à la forme de cette algue dont le thalle microcopique est « constitué de filaments rouge-rose, rampants, irrégulièrement ramifiés et articulés, vivant dans les parois cellulaires de diverses algues ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2020)[3], ITIS      (13 septembre 2020)[4] et World Register of Marine Species                               (13 septembre 2020)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2020), ITIS      (13 septembre 2020) et World Register of Marine Species                               (13 septembre 2020) :
 Colaconema Batters, 1896
-Selon AlgaeBase                                           (13 septembre 2020)[1], les genres Grania et Kylinia pouvaient appartenir à cette famille, cependant ils ont, par la suite, été classés dans la famille des Acrochaetiaceae[6],[7].
+Selon AlgaeBase                                           (13 septembre 2020), les genres Grania et Kylinia pouvaient appartenir à cette famille, cependant ils ont, par la suite, été classés dans la famille des Acrochaetiaceae,.
 </t>
         </is>
       </c>
